--- a/datenRF4/AFL/i=73,96 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i73,96_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=73,96 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i73,96_Fremdlüfter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="124">
   <si>
     <t>Sequenz</t>
   </si>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -936,11 +936,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1038,9 +1088,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1069,12 +1116,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1119,6 +1162,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,7 +1507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1440,7 +1521,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1459,47 +1540,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="107" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="98" t="s">
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="95" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="100" t="s">
+      <c r="D2" s="100"/>
+      <c r="E2" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -1524,7 +1605,7 @@
       <c r="C3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="26" t="s">
@@ -1533,7 +1614,7 @@
       <c r="F3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="87" t="s">
         <v>120</v>
       </c>
       <c r="H3" s="25" t="s">
@@ -1625,10 +1706,10 @@
       <c r="E5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="89"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="38">
         <v>1</v>
       </c>
@@ -1677,10 +1758,10 @@
       <c r="E6" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="91"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="47"/>
@@ -1696,23 +1777,25 @@
       <c r="T6" s="59"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1">
-      <c r="A7" s="92">
-        <v>1</v>
-      </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94">
-        <v>1</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="95" t="s">
+      <c r="A7" s="90">
+        <v>1</v>
+      </c>
+      <c r="B7" s="108">
+        <v>3</v>
+      </c>
+      <c r="C7" s="91">
+        <v>1</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="94">
         <v>23355</v>
       </c>
       <c r="H7" s="38"/>
@@ -1774,7 +1857,7 @@
       <c r="E9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G9" s="15"/>
@@ -1826,7 +1909,7 @@
       <c r="E10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="5"/>
@@ -1860,7 +1943,7 @@
       <c r="E11" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="79" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="63"/>
@@ -1882,20 +1965,22 @@
       <c r="A12" s="64">
         <v>1</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66">
-        <v>1</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="67" t="s">
+      <c r="B12" s="109">
+        <v>3</v>
+      </c>
+      <c r="C12" s="65">
+        <v>1</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="67">
         <v>23355</v>
       </c>
       <c r="H12" s="38"/>
@@ -1916,7 +2001,9 @@
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="127">
+        <v>3</v>
+      </c>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -1926,7 +2013,7 @@
       <c r="E13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="82" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="14">
@@ -2191,7 +2278,7 @@
       <c r="E23" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G23" s="15"/>
@@ -2243,7 +2330,7 @@
       <c r="E24" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="5"/>
@@ -2277,7 +2364,7 @@
       <c r="E25" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="80" t="s">
+      <c r="F25" s="79" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="63"/>
@@ -2299,20 +2386,22 @@
       <c r="A26" s="64">
         <v>1</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66">
-        <v>1</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="67" t="s">
+      <c r="B26" s="109">
+        <v>3</v>
+      </c>
+      <c r="C26" s="65">
+        <v>1</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="67">
         <v>23355</v>
       </c>
       <c r="H26" s="38"/>
@@ -2333,7 +2422,9 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="127">
+        <v>3</v>
+      </c>
       <c r="C27" s="12">
         <v>2</v>
       </c>
@@ -2343,7 +2434,7 @@
       <c r="E27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F27" s="82" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="14">
@@ -2448,8 +2539,8 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
       <c r="H31" s="38">
         <v>7</v>
       </c>
@@ -2517,7 +2608,7 @@
       <c r="E33" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G33" s="15"/>
@@ -2569,7 +2660,7 @@
       <c r="E34" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="5"/>
@@ -2587,26 +2678,26 @@
       <c r="S34" s="38"/>
       <c r="T34" s="39"/>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2">
+    <row r="35" spans="1:20" ht="15" thickBot="1">
+      <c r="A35" s="111">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="112">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="C35" s="113">
+        <v>1</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="116"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="47"/>
@@ -2622,23 +2713,25 @@
       <c r="T35" s="39"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="64">
-        <v>1</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66">
-        <v>1</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="67" t="s">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="125">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="82" t="s">
+      <c r="F36" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="90">
+      <c r="G36" s="119">
         <v>23355</v>
       </c>
       <c r="H36" s="38"/>
@@ -2656,14 +2749,22 @@
       <c r="T36" s="39"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="A37" s="29">
+        <v>2</v>
+      </c>
+      <c r="B37" s="126">
+        <v>3</v>
+      </c>
+      <c r="C37" s="30">
+        <v>1</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E37" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="86" t="s">
+      <c r="F37" s="85" t="s">
         <v>88</v>
       </c>
       <c r="G37" s="34">
@@ -2720,7 +2821,7 @@
       <c r="E39" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F39" s="79" t="s">
+      <c r="F39" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G39" s="15"/>
@@ -2768,7 +2869,7 @@
       <c r="E40" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="81" t="s">
+      <c r="F40" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G40" s="5"/>
@@ -2802,7 +2903,7 @@
       <c r="E41" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="80" t="s">
+      <c r="F41" s="79" t="s">
         <v>95</v>
       </c>
       <c r="G41" s="63"/>
@@ -2824,20 +2925,22 @@
       <c r="A42" s="64">
         <v>1</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66">
-        <v>1</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="67" t="s">
+      <c r="B42" s="109">
+        <v>3</v>
+      </c>
+      <c r="C42" s="65">
+        <v>1</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="68">
+      <c r="G42" s="67">
         <v>23355</v>
       </c>
       <c r="H42" s="38"/>
@@ -2855,14 +2958,22 @@
       <c r="T42" s="39"/>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="29">
+        <v>2</v>
+      </c>
+      <c r="B43" s="120">
+        <v>3</v>
+      </c>
+      <c r="C43" s="30">
+        <v>6</v>
+      </c>
+      <c r="D43" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E43" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="85" t="s">
         <v>88</v>
       </c>
       <c r="G43" s="34">
@@ -2977,7 +3088,7 @@
       <c r="E47" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G47" s="15"/>
@@ -3031,7 +3142,7 @@
       <c r="E48" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="81" t="s">
+      <c r="F48" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G48" s="5"/>
@@ -3065,7 +3176,7 @@
       <c r="E49" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="80" t="s">
+      <c r="F49" s="79" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="63"/>
@@ -3087,20 +3198,22 @@
       <c r="A50" s="64">
         <v>1</v>
       </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66">
-        <v>1</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="67" t="s">
+      <c r="B50" s="109">
+        <v>3</v>
+      </c>
+      <c r="C50" s="65">
+        <v>1</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="82" t="s">
+      <c r="F50" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="68">
+      <c r="G50" s="67">
         <v>23355</v>
       </c>
       <c r="H50" s="38"/>
@@ -3118,14 +3231,22 @@
       <c r="T50" s="39"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="A51" s="29">
+        <v>2</v>
+      </c>
+      <c r="B51" s="120">
+        <v>3</v>
+      </c>
+      <c r="C51" s="30">
+        <v>6</v>
+      </c>
+      <c r="D51" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E51" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="86" t="s">
+      <c r="F51" s="85" t="s">
         <v>88</v>
       </c>
       <c r="G51" s="34">
@@ -3287,7 +3408,7 @@
       <c r="E58" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F58" s="79" t="s">
+      <c r="F58" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G58" s="15"/>
@@ -3339,7 +3460,7 @@
       <c r="E59" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="81" t="s">
+      <c r="F59" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G59" s="5"/>
@@ -3373,7 +3494,7 @@
       <c r="E60" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="81" t="s">
+      <c r="F60" s="80" t="s">
         <v>95</v>
       </c>
       <c r="G60" s="5"/>
@@ -3392,14 +3513,22 @@
       <c r="T60" s="39"/>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
+      <c r="A61" s="29">
+        <v>7</v>
+      </c>
+      <c r="B61" s="121">
+        <v>2</v>
+      </c>
+      <c r="C61" s="30">
+        <v>1</v>
+      </c>
+      <c r="D61" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E61" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="80" t="s">
+      <c r="F61" s="79" t="s">
         <v>95</v>
       </c>
       <c r="G61" s="63"/>
@@ -3418,17 +3547,25 @@
       <c r="T61" s="39"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="69"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="71" t="s">
+      <c r="A62" s="68">
+        <v>1</v>
+      </c>
+      <c r="B62" s="69">
+        <v>3</v>
+      </c>
+      <c r="C62" s="69">
+        <v>1</v>
+      </c>
+      <c r="D62" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="84" t="s">
+      <c r="F62" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="72">
+      <c r="G62" s="71">
         <v>21131</v>
       </c>
       <c r="H62" s="38"/>
@@ -3511,7 +3648,7 @@
       <c r="E65" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="79" t="s">
+      <c r="F65" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G65" s="15"/>
@@ -3563,7 +3700,7 @@
       <c r="E66" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="81" t="s">
+      <c r="F66" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G66" s="5"/>
@@ -3597,7 +3734,7 @@
       <c r="E67" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="81" t="s">
+      <c r="F67" s="80" t="s">
         <v>95</v>
       </c>
       <c r="G67" s="5"/>
@@ -3616,14 +3753,22 @@
       <c r="T67" s="39"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="A68" s="29">
+        <v>7</v>
+      </c>
+      <c r="B68" s="121">
+        <v>2</v>
+      </c>
+      <c r="C68" s="30">
+        <v>1</v>
+      </c>
+      <c r="D68" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E68" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="80" t="s">
+      <c r="F68" s="79" t="s">
         <v>99</v>
       </c>
       <c r="G68" s="63"/>
@@ -3642,17 +3787,25 @@
       <c r="T68" s="39"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="73"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="75" t="s">
+      <c r="A69" s="72">
+        <v>1</v>
+      </c>
+      <c r="B69" s="73">
+        <v>3</v>
+      </c>
+      <c r="C69" s="73">
+        <v>1</v>
+      </c>
+      <c r="D69" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="85" t="s">
+      <c r="F69" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="76">
+      <c r="G69" s="75">
         <v>21131</v>
       </c>
       <c r="H69" s="38"/>
@@ -3670,14 +3823,22 @@
       <c r="T69" s="39"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
+      <c r="A70" s="29">
+        <v>2</v>
+      </c>
+      <c r="B70" s="30">
+        <v>3</v>
+      </c>
+      <c r="C70" s="30">
+        <v>4</v>
+      </c>
+      <c r="D70" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E70" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="85" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="34">
@@ -3800,7 +3961,7 @@
       <c r="E74" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="79" t="s">
+      <c r="F74" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G74" s="15"/>
@@ -3852,7 +4013,7 @@
       <c r="E75" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="81" t="s">
+      <c r="F75" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G75" s="5"/>
@@ -3886,7 +4047,7 @@
       <c r="E76" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="81" t="s">
+      <c r="F76" s="80" t="s">
         <v>95</v>
       </c>
       <c r="G76" s="5"/>
@@ -3905,14 +4066,22 @@
       <c r="T76" s="39"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1">
-      <c r="A77" s="29"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
+      <c r="A77" s="29">
+        <v>7</v>
+      </c>
+      <c r="B77" s="121">
+        <v>2</v>
+      </c>
+      <c r="C77" s="30">
+        <v>1</v>
+      </c>
+      <c r="D77" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E77" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F77" s="80" t="s">
+      <c r="F77" s="79" t="s">
         <v>99</v>
       </c>
       <c r="G77" s="63"/>
@@ -3931,17 +4100,25 @@
       <c r="T77" s="39"/>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="73"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="75" t="s">
+      <c r="A78" s="72">
+        <v>1</v>
+      </c>
+      <c r="B78" s="73">
+        <v>3</v>
+      </c>
+      <c r="C78" s="73">
+        <v>1</v>
+      </c>
+      <c r="D78" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="85" t="s">
+      <c r="F78" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="G78" s="76">
+      <c r="G78" s="75">
         <v>21131</v>
       </c>
       <c r="H78" s="38"/>
@@ -3959,14 +4136,22 @@
       <c r="T78" s="39"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1">
-      <c r="A79" s="29"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
+      <c r="A79" s="29">
+        <v>2</v>
+      </c>
+      <c r="B79" s="30">
+        <v>3</v>
+      </c>
+      <c r="C79" s="30">
+        <v>4</v>
+      </c>
+      <c r="D79" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E79" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="86" t="s">
+      <c r="F79" s="85" t="s">
         <v>101</v>
       </c>
       <c r="G79" s="34">
@@ -4147,7 +4332,7 @@
       <c r="E85" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F85" s="79" t="s">
+      <c r="F85" s="78" t="s">
         <v>119</v>
       </c>
       <c r="G85" s="15"/>
@@ -4199,7 +4384,7 @@
       <c r="E86" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F86" s="81" t="s">
+      <c r="F86" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G86" s="5"/>
@@ -4233,7 +4418,7 @@
       <c r="E87" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="81" t="s">
+      <c r="F87" s="80" t="s">
         <v>95</v>
       </c>
       <c r="G87" s="5"/>
@@ -4252,14 +4437,22 @@
       <c r="T87" s="39"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="32"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="A88" s="32">
+        <v>7</v>
+      </c>
+      <c r="B88" s="28">
+        <v>2</v>
+      </c>
+      <c r="C88" s="28">
+        <v>1</v>
+      </c>
+      <c r="D88" s="124" t="s">
+        <v>71</v>
+      </c>
       <c r="E88" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="81" t="s">
+      <c r="F88" s="80" t="s">
         <v>99</v>
       </c>
       <c r="G88" s="5"/>
@@ -4278,14 +4471,22 @@
       <c r="T88" s="39"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1">
-      <c r="A89" s="29"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
+      <c r="A89" s="29">
+        <v>8</v>
+      </c>
+      <c r="B89" s="30">
+        <v>2</v>
+      </c>
+      <c r="C89" s="30">
+        <v>1</v>
+      </c>
+      <c r="D89" s="110" t="s">
+        <v>71</v>
+      </c>
       <c r="E89" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F89" s="86" t="s">
+      <c r="F89" s="85" t="s">
         <v>102</v>
       </c>
       <c r="G89" s="34">
